--- a/RailIndexPrj/compidx-yunying.xlsx
+++ b/RailIndexPrj/compidx-yunying.xlsx
@@ -980,10 +980,13 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
